--- a/Benchmarking/clinopyroxene/Python_Liq_CpxBarometers_Test.xlsx
+++ b/Benchmarking/clinopyroxene/Python_Liq_CpxBarometers_Test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PYthonBarometers/ClassicalThermometers_20210114T090546Z_001/ClassicalThermometers/Benchmarking/Clinopyroxene_Benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\clinopyroxene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{A8F7A445-6D80-4ED9-BB03-11520E3FEFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E016588C-9EC7-42F0-975A-3E6EFCB68AC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C8017-B4A4-410E-8659-6657CD454908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{81A2371C-1752-7741-8A48-BEC2C378A224}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{81A2371C-1752-7741-8A48-BEC2C378A224}"/>
   </bookViews>
   <sheets>
     <sheet name="With_Errors" sheetId="4" r:id="rId1"/>
     <sheet name="All_Fe2+" sheetId="1" r:id="rId2"/>
-    <sheet name="SomeFe3+" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sites" sheetId="5" r:id="rId3"/>
+    <sheet name="SomeFe3+" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
   <si>
     <t>P_GPa</t>
   </si>
@@ -406,6 +407,30 @@
   </si>
   <si>
     <t>Cr2O3_Cpx_Err</t>
+  </si>
+  <si>
+    <t>DiHd_pred_old</t>
+  </si>
+  <si>
+    <t>DiHd_pred_new</t>
+  </si>
+  <si>
+    <t>EnFs_pred_old</t>
+  </si>
+  <si>
+    <t>CaTs_pred_old</t>
+  </si>
+  <si>
+    <t>Jd_pred_old</t>
+  </si>
+  <si>
+    <t>CaTi_pred_old</t>
+  </si>
+  <si>
+    <t>CrCaTs_pred_old</t>
+  </si>
+  <si>
+    <t>synthetic</t>
   </si>
 </sst>
 </file>
@@ -973,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471EF56-9344-483C-98FC-215EF1B835FD}">
   <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
@@ -1849,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB0FCC-31C5-A347-849A-21A9BAF70A22}">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2694,6 +2719,2975 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD9DD81-6ED4-4487-8C6A-951EE50CB63E}">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="27" max="27" width="15.5" customWidth="1"/>
+    <col min="28" max="28" width="17.19921875" customWidth="1"/>
+    <col min="29" max="29" width="13.59765625" customWidth="1"/>
+    <col min="30" max="30" width="15.69921875" customWidth="1"/>
+    <col min="31" max="31" width="17.296875" customWidth="1"/>
+    <col min="32" max="32" width="18.69921875" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.91</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6.09</v>
+      </c>
+      <c r="H2" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="R2" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="T2" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="U2" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.96064373117069501</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1344.7001329487964</v>
+      </c>
+      <c r="AA2">
+        <v>0.99922539439608238</v>
+      </c>
+      <c r="AB2">
+        <v>0.82683671188343988</v>
+      </c>
+      <c r="AC2">
+        <v>9.6081536124996772E-2</v>
+      </c>
+      <c r="AD2">
+        <v>1.2052902017893692E-2</v>
+      </c>
+      <c r="AE2">
+        <v>1.6173272150563845E-2</v>
+      </c>
+      <c r="AF2">
+        <v>4.5575107147191145E-2</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.99685711627665841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>50.3</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="R3" s="4">
+        <v>5.83</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>15</v>
+      </c>
+      <c r="U3" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.5837308153621108</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1289.2408589429026</v>
+      </c>
+      <c r="AA3">
+        <v>1.1514419075560551</v>
+      </c>
+      <c r="AB3">
+        <v>0.81130306805535424</v>
+      </c>
+      <c r="AC3">
+        <v>9.4631397596101688E-2</v>
+      </c>
+      <c r="AD3">
+        <v>1.1180454468523057E-2</v>
+      </c>
+      <c r="AE3">
+        <v>1.7419744754583053E-2</v>
+      </c>
+      <c r="AF3">
+        <v>6.1192912941690818E-2</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0.99644506129278976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4">
+        <v>59.1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D4" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="R4" s="4">
+        <v>6.51</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T4" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.89559739579306941</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1254.7612833982253</v>
+      </c>
+      <c r="AA4">
+        <v>1.1730644621915556</v>
+      </c>
+      <c r="AB4">
+        <v>0.7974226743968551</v>
+      </c>
+      <c r="AC4">
+        <v>0.15075184435524766</v>
+      </c>
+      <c r="AD4">
+        <v>1.4659985899520181E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.8317994303049284E-2</v>
+      </c>
+      <c r="AF4">
+        <v>3.1226612645528923E-2</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1.0124018868929734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.64</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="R5" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="T5" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="U5" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.9527080420877736</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1287.3207490003197</v>
+      </c>
+      <c r="AA5">
+        <v>1.130061694221981</v>
+      </c>
+      <c r="AB5">
+        <v>0.82447830069610495</v>
+      </c>
+      <c r="AC5">
+        <v>0.10986343149152779</v>
+      </c>
+      <c r="AD5">
+        <v>1.232901105388404E-2</v>
+      </c>
+      <c r="AE5">
+        <v>1.9318905306911594E-2</v>
+      </c>
+      <c r="AF5">
+        <v>5.4669207835822353E-2</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1.0211491448084018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.58</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>51</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="R6" s="4">
+        <v>7.33</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="U6" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3.5815691040872855</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1246.895515051508</v>
+      </c>
+      <c r="AA6">
+        <v>1.1353673458986895</v>
+      </c>
+      <c r="AB6">
+        <v>0.81528921480177019</v>
+      </c>
+      <c r="AC6">
+        <v>7.2428622266528866E-2</v>
+      </c>
+      <c r="AD6">
+        <v>9.6282008893305519E-3</v>
+      </c>
+      <c r="AE6">
+        <v>2.7946710529852425E-2</v>
+      </c>
+      <c r="AF6">
+        <v>5.399481606509364E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0.98017994452162505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>56.707786571778868</v>
+      </c>
+      <c r="C7">
+        <v>0.51564143474625057</v>
+      </c>
+      <c r="D7">
+        <v>21.131861892242895</v>
+      </c>
+      <c r="E7">
+        <v>6.6567845953334785</v>
+      </c>
+      <c r="F7">
+        <v>1.0875259652836651</v>
+      </c>
+      <c r="G7">
+        <v>2.6509194649304901</v>
+      </c>
+      <c r="H7">
+        <v>7.929542798544631</v>
+      </c>
+      <c r="I7">
+        <v>6.6237967626228089</v>
+      </c>
+      <c r="J7">
+        <v>1.330777753231454</v>
+      </c>
+      <c r="K7">
+        <v>0.33562153225918101</v>
+      </c>
+      <c r="L7">
+        <v>0.44222118168376789</v>
+      </c>
+      <c r="M7">
+        <v>6.2437203487769573</v>
+      </c>
+      <c r="O7">
+        <v>51.212072259268787</v>
+      </c>
+      <c r="P7">
+        <v>1.4129830218504642</v>
+      </c>
+      <c r="Q7">
+        <v>4.3170356111317627</v>
+      </c>
+      <c r="R7">
+        <v>7.399534306024135</v>
+      </c>
+      <c r="S7">
+        <v>1.1210306137022144</v>
+      </c>
+      <c r="T7">
+        <v>14.998390123922762</v>
+      </c>
+      <c r="U7">
+        <v>23.054968295330653</v>
+      </c>
+      <c r="V7">
+        <v>0.7197579923423485</v>
+      </c>
+      <c r="W7">
+        <v>0.19804933163330218</v>
+      </c>
+      <c r="X7">
+        <v>0.83213763230491689</v>
+      </c>
+      <c r="Y7">
+        <v>-0.34085858139893688</v>
+      </c>
+      <c r="Z7">
+        <v>1219.2029623858107</v>
+      </c>
+      <c r="AA7">
+        <v>1.2707904876365321</v>
+      </c>
+      <c r="AB7">
+        <v>1.0029183120325955</v>
+      </c>
+      <c r="AC7">
+        <v>8.515945992777757E-2</v>
+      </c>
+      <c r="AD7">
+        <v>1.023050110234156E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.9306249016308891E-2</v>
+      </c>
+      <c r="AF7">
+        <v>7.3332963370027926E-2</v>
+      </c>
+      <c r="AG7">
+        <v>6.7584881846490585E-2</v>
+      </c>
+      <c r="AH7">
+        <v>1.2699504193685378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>51.903458613622703</v>
+      </c>
+      <c r="C8">
+        <v>1.3388057800067095</v>
+      </c>
+      <c r="D8">
+        <v>20.104672187908157</v>
+      </c>
+      <c r="E8">
+        <v>8.8691511165077017</v>
+      </c>
+      <c r="F8">
+        <v>0.21229722100799336</v>
+      </c>
+      <c r="G8">
+        <v>5.3232714182791705</v>
+      </c>
+      <c r="H8">
+        <v>10.686843042270171</v>
+      </c>
+      <c r="I8">
+        <v>4.6038244012019609</v>
+      </c>
+      <c r="J8">
+        <v>1.0733763195135877</v>
+      </c>
+      <c r="K8">
+        <v>0.51085264871045544</v>
+      </c>
+      <c r="L8">
+        <v>0.88011755325400698</v>
+      </c>
+      <c r="M8">
+        <v>6.9338763027208641</v>
+      </c>
+      <c r="O8">
+        <v>50.976055384141745</v>
+      </c>
+      <c r="P8">
+        <v>1.3901542319721303</v>
+      </c>
+      <c r="Q8">
+        <v>5.041890552030706</v>
+      </c>
+      <c r="R8">
+        <v>6.7203755374332657</v>
+      </c>
+      <c r="S8">
+        <v>0.42516798769416786</v>
+      </c>
+      <c r="T8">
+        <v>15.744769414204807</v>
+      </c>
+      <c r="U8">
+        <v>23.660451756946621</v>
+      </c>
+      <c r="V8">
+        <v>1.0647751140275861</v>
+      </c>
+      <c r="W8">
+        <v>0.49022489877632835</v>
+      </c>
+      <c r="X8">
+        <v>1.0412393230825401</v>
+      </c>
+      <c r="Y8">
+        <v>-3.9246795254732536</v>
+      </c>
+      <c r="Z8">
+        <v>1242.2793703358811</v>
+      </c>
+      <c r="AA8">
+        <v>1.3274133102042083</v>
+      </c>
+      <c r="AB8">
+        <v>1.058236003632145</v>
+      </c>
+      <c r="AC8">
+        <v>0.12148373947754465</v>
+      </c>
+      <c r="AD8">
+        <v>1.2386376073297893E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.0479317727734234E-2</v>
+      </c>
+      <c r="AF8">
+        <v>7.6129825088616557E-2</v>
+      </c>
+      <c r="AG8">
+        <v>0.20053680552327463</v>
+      </c>
+      <c r="AH8">
+        <v>1.4903224493146066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>59.607786571778867</v>
+      </c>
+      <c r="C9">
+        <v>0.71564143474625064</v>
+      </c>
+      <c r="D9">
+        <v>19.831861892242898</v>
+      </c>
+      <c r="E9">
+        <v>5.9967845953334784</v>
+      </c>
+      <c r="F9">
+        <v>1.0775259652836651</v>
+      </c>
+      <c r="G9">
+        <v>3.3209194649304901</v>
+      </c>
+      <c r="H9">
+        <v>8.1995427985446305</v>
+      </c>
+      <c r="I9">
+        <v>3.72</v>
+      </c>
+      <c r="J9">
+        <v>0.42</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9">
+        <v>6.2</v>
+      </c>
+      <c r="O9">
+        <v>47.512072259268784</v>
+      </c>
+      <c r="P9">
+        <v>2.6029830218504642</v>
+      </c>
+      <c r="Q9">
+        <v>8.0270356111317618</v>
+      </c>
+      <c r="R9">
+        <v>6.5795343060241347</v>
+      </c>
+      <c r="S9">
+        <v>1.0610306137022145</v>
+      </c>
+      <c r="T9">
+        <v>13.698390123922762</v>
+      </c>
+      <c r="U9">
+        <v>23.154968295330654</v>
+      </c>
+      <c r="V9">
+        <v>0.65975799234234844</v>
+      </c>
+      <c r="W9">
+        <v>0.19804933163330218</v>
+      </c>
+      <c r="X9">
+        <v>0.96213763230491689</v>
+      </c>
+      <c r="Y9">
+        <v>5.9921707462754874</v>
+      </c>
+      <c r="Z9">
+        <v>1300.5037911439103</v>
+      </c>
+      <c r="AA9">
+        <v>1.003373386147181</v>
+      </c>
+      <c r="AB9">
+        <v>0.64288773926185727</v>
+      </c>
+      <c r="AC9">
+        <v>0.13331706651490427</v>
+      </c>
+      <c r="AD9">
+        <v>1.6787600131360221E-2</v>
+      </c>
+      <c r="AE9">
+        <v>1.6721271222373855E-2</v>
+      </c>
+      <c r="AF9">
+        <v>3.4421832776421787E-2</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.84414138930607674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>60.23458613622703</v>
+      </c>
+      <c r="C10">
+        <v>1.8280578000670953</v>
+      </c>
+      <c r="D10">
+        <v>29.446721879081572</v>
+      </c>
+      <c r="E10">
+        <v>7.5715111650770153</v>
+      </c>
+      <c r="F10">
+        <v>0.42297221007993363</v>
+      </c>
+      <c r="G10">
+        <v>6.0127141827917026</v>
+      </c>
+      <c r="H10">
+        <v>14.048430422701715</v>
+      </c>
+      <c r="I10">
+        <v>14.858244012019609</v>
+      </c>
+      <c r="J10">
+        <v>7.5537631951358772</v>
+      </c>
+      <c r="K10">
+        <v>5.1085264871045544</v>
+      </c>
+      <c r="L10">
+        <v>7.6311755325400696</v>
+      </c>
+      <c r="M10">
+        <v>13.538763027208638</v>
+      </c>
+      <c r="O10">
+        <v>57.760553841417462</v>
+      </c>
+      <c r="P10">
+        <v>7.1615423197213026</v>
+      </c>
+      <c r="Q10">
+        <v>13.358905520307061</v>
+      </c>
+      <c r="R10">
+        <v>16.233755374332652</v>
+      </c>
+      <c r="S10">
+        <v>4.4516798769416788</v>
+      </c>
+      <c r="T10">
+        <v>21.84769414204807</v>
+      </c>
+      <c r="U10">
+        <v>32.004517569466202</v>
+      </c>
+      <c r="V10">
+        <v>8.5577511402758617</v>
+      </c>
+      <c r="W10">
+        <v>4.9022489877632838</v>
+      </c>
+      <c r="X10">
+        <v>7.7023932308254004</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>1100</v>
+      </c>
+      <c r="AA10">
+        <v>1.4438686306835922</v>
+      </c>
+      <c r="AB10">
+        <v>1.5292182770506344</v>
+      </c>
+      <c r="AC10">
+        <v>0.39747215326783625</v>
+      </c>
+      <c r="AD10">
+        <v>3.3903147324836715E-2</v>
+      </c>
+      <c r="AE10">
+        <v>4.5483900326195724E-2</v>
+      </c>
+      <c r="AF10">
+        <v>0.20367039979456494</v>
+      </c>
+      <c r="AG10">
+        <v>5.5873705561401996</v>
+      </c>
+      <c r="AH10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>53.694789381790002</v>
+      </c>
+      <c r="C11">
+        <v>0.94633465343140133</v>
+      </c>
+      <c r="D11">
+        <v>18.780758311425071</v>
+      </c>
+      <c r="E11">
+        <v>9.6021150744421302</v>
+      </c>
+      <c r="F11">
+        <v>0.19597546737510596</v>
+      </c>
+      <c r="G11">
+        <v>6.1331899541426687</v>
+      </c>
+      <c r="H11">
+        <v>12.361974218326326</v>
+      </c>
+      <c r="I11">
+        <v>3.7431402572058516</v>
+      </c>
+      <c r="J11">
+        <v>0.17528322180493475</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.15318331772525651</v>
+      </c>
+      <c r="M11">
+        <v>3.8166137325352434</v>
+      </c>
+      <c r="O11">
+        <v>52.592172135234257</v>
+      </c>
+      <c r="P11">
+        <v>0.54264915109252321</v>
+      </c>
+      <c r="Q11">
+        <v>3.7655031761187518</v>
+      </c>
+      <c r="R11">
+        <v>5.2160187705205017</v>
+      </c>
+      <c r="S11">
+        <v>9.8289275523319924E-2</v>
+      </c>
+      <c r="T11">
+        <v>16.745456395797962</v>
+      </c>
+      <c r="U11">
+        <v>24.293327713353897</v>
+      </c>
+      <c r="V11">
+        <v>0.24983419181621633</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.70898108373212465</v>
+      </c>
+      <c r="Y11">
+        <v>1.0175764724092256</v>
+      </c>
+      <c r="Z11">
+        <v>1339.8983273180088</v>
+      </c>
+      <c r="AA11">
+        <v>1.0162826312284423</v>
+      </c>
+      <c r="AB11">
+        <v>0.82944695808249513</v>
+      </c>
+      <c r="AC11">
+        <v>7.8056849999703151E-2</v>
+      </c>
+      <c r="AD11">
+        <v>1.0627838125232329E-2</v>
+      </c>
+      <c r="AE11">
+        <v>1.6306904645838959E-2</v>
+      </c>
+      <c r="AF11">
+        <v>5.0798958913637927E-2</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.98547560486083918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <v>53.57781186015692</v>
+      </c>
+      <c r="C12">
+        <v>1.2077078878207983</v>
+      </c>
+      <c r="D12">
+        <v>20.936970600783663</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.19042364719915189</v>
+      </c>
+      <c r="G12">
+        <v>5.1509491663030271</v>
+      </c>
+      <c r="H12">
+        <v>10.686843042270171</v>
+      </c>
+      <c r="I12">
+        <v>4.0487826772471296</v>
+      </c>
+      <c r="J12">
+        <v>0.44744180541957068</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.15036164574555611</v>
+      </c>
+      <c r="M12">
+        <v>6.6550033076869362</v>
+      </c>
+      <c r="O12">
+        <v>53.700558582232986</v>
+      </c>
+      <c r="P12">
+        <v>0.77819125893396546</v>
+      </c>
+      <c r="Q12">
+        <v>4.4998189074366515</v>
+      </c>
+      <c r="R12">
+        <v>6.349088938323594</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>16.117154121307209</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>0.25979460273666211</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.3013147010463112</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>1100</v>
+      </c>
+      <c r="AA12">
+        <v>0.70685594212573144</v>
+      </c>
+      <c r="AB12">
+        <v>0.22253670547809329</v>
+      </c>
+      <c r="AC12">
+        <v>2.7467520230458109</v>
+      </c>
+      <c r="AD12">
+        <v>0.1301503344039075</v>
+      </c>
+      <c r="AE12">
+        <v>1.9209678402968458E-2</v>
+      </c>
+      <c r="AF12">
+        <v>3.5412124345680765E-2</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <v>51.5</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>19.2</v>
+      </c>
+      <c r="E13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F13">
+        <v>0.19</v>
+      </c>
+      <c r="G13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>3.72</v>
+      </c>
+      <c r="J13">
+        <v>0.42</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>6.2</v>
+      </c>
+      <c r="O13">
+        <v>50.3</v>
+      </c>
+      <c r="P13">
+        <v>0.73</v>
+      </c>
+      <c r="Q13">
+        <v>4.12</v>
+      </c>
+      <c r="R13">
+        <v>5.83</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+      <c r="U13">
+        <v>22.7</v>
+      </c>
+      <c r="V13">
+        <v>0.24</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1.5570088288422863</v>
+      </c>
+      <c r="Z13">
+        <v>1287.6892548013516</v>
+      </c>
+      <c r="AA13">
+        <v>1.1299401334271977</v>
+      </c>
+      <c r="AB13">
+        <v>0.82030300300908587</v>
+      </c>
+      <c r="AC13">
+        <v>8.1107065870070993E-2</v>
+      </c>
+      <c r="AD13">
+        <v>9.9230897258373169E-3</v>
+      </c>
+      <c r="AE13">
+        <v>1.6916981595956362E-2</v>
+      </c>
+      <c r="AF13">
+        <v>8.6401953091382669E-2</v>
+      </c>
+      <c r="AG13">
+        <v>7.2882960393894507</v>
+      </c>
+      <c r="AH13">
+        <v>8.304140657040243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>51.5</v>
+      </c>
+      <c r="C14">
+        <v>1.19</v>
+      </c>
+      <c r="D14">
+        <v>19.2</v>
+      </c>
+      <c r="E14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F14">
+        <v>0.19</v>
+      </c>
+      <c r="G14">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>3.72</v>
+      </c>
+      <c r="J14">
+        <v>0.42</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>6.2</v>
+      </c>
+      <c r="O14">
+        <v>50.3</v>
+      </c>
+      <c r="P14">
+        <v>0.73</v>
+      </c>
+      <c r="Q14">
+        <v>4.12</v>
+      </c>
+      <c r="R14">
+        <v>5.83</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>22.7</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>1100</v>
+      </c>
+      <c r="AA14">
+        <v>2.9839555797113064</v>
+      </c>
+      <c r="AB14">
+        <v>0.67813822686328895</v>
+      </c>
+      <c r="AC14">
+        <v>0.27110446272262045</v>
+      </c>
+      <c r="AD14">
+        <v>9.9570648000091647E-3</v>
+      </c>
+      <c r="AE14">
+        <v>1.7433039439054488E-2</v>
+      </c>
+      <c r="AF14">
+        <v>6.4663578304539268E-2</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>51.5</v>
+      </c>
+      <c r="C15">
+        <v>1.19</v>
+      </c>
+      <c r="D15">
+        <v>19.2</v>
+      </c>
+      <c r="E15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F15">
+        <v>0.19</v>
+      </c>
+      <c r="G15">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>3.72</v>
+      </c>
+      <c r="J15">
+        <v>0.42</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M15">
+        <v>6.2</v>
+      </c>
+      <c r="O15">
+        <v>50.3</v>
+      </c>
+      <c r="P15">
+        <v>0.73</v>
+      </c>
+      <c r="Q15">
+        <v>4.12</v>
+      </c>
+      <c r="R15">
+        <v>5.83</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>0.24</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>1422.7041608431005</v>
+      </c>
+      <c r="AA15">
+        <v>0.40499559363154802</v>
+      </c>
+      <c r="AB15">
+        <v>0.43426085724947294</v>
+      </c>
+      <c r="AC15">
+        <v>0.66705382775021815</v>
+      </c>
+      <c r="AD15">
+        <v>9.2547336036212471E-2</v>
+      </c>
+      <c r="AE15">
+        <v>1.7428906004410934E-2</v>
+      </c>
+      <c r="AF15">
+        <v>2.2453636593588421E-2</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>1.2336200533916795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>1.19</v>
+      </c>
+      <c r="D16">
+        <v>19.2</v>
+      </c>
+      <c r="E16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F16">
+        <v>0.19</v>
+      </c>
+      <c r="G16">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>3.72</v>
+      </c>
+      <c r="J16">
+        <v>0.9</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M16">
+        <v>6.2</v>
+      </c>
+      <c r="O16">
+        <v>50.3</v>
+      </c>
+      <c r="P16">
+        <v>0.73</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>5.83</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>22.7</v>
+      </c>
+      <c r="V16">
+        <v>0.24</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y16">
+        <v>7.23258433817493E-2</v>
+      </c>
+      <c r="Z16">
+        <v>1289.6946602093108</v>
+      </c>
+      <c r="AA16">
+        <v>1.1086462084232191</v>
+      </c>
+      <c r="AB16">
+        <v>0.79729595457897351</v>
+      </c>
+      <c r="AC16">
+        <v>0.2275649027543579</v>
+      </c>
+      <c r="AD16">
+        <v>1.6448111690338576E-2</v>
+      </c>
+      <c r="AE16">
+        <v>1.4702048464235368E-2</v>
+      </c>
+      <c r="AF16">
+        <v>2.9558171908128674E-2</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1.0855157078134796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17">
+        <v>51.5</v>
+      </c>
+      <c r="C17">
+        <v>1.19</v>
+      </c>
+      <c r="D17">
+        <v>19.2</v>
+      </c>
+      <c r="E17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17">
+        <v>0.19</v>
+      </c>
+      <c r="G17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>3.72</v>
+      </c>
+      <c r="J17">
+        <v>0.42</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M17">
+        <v>6.2</v>
+      </c>
+      <c r="O17">
+        <v>50.3</v>
+      </c>
+      <c r="P17">
+        <v>0.73</v>
+      </c>
+      <c r="Q17">
+        <v>4.12</v>
+      </c>
+      <c r="R17">
+        <v>5.83</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="U17">
+        <v>22.7</v>
+      </c>
+      <c r="V17">
+        <v>0.24</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y17">
+        <v>1.5998490483689536</v>
+      </c>
+      <c r="Z17">
+        <v>1291.6446664619009</v>
+      </c>
+      <c r="AA17">
+        <v>1.1410384220760126</v>
+      </c>
+      <c r="AB17">
+        <v>0.81091714294626349</v>
+      </c>
+      <c r="AC17">
+        <v>9.3993475235263219E-2</v>
+      </c>
+      <c r="AD17">
+        <v>1.1227222293330731E-2</v>
+      </c>
+      <c r="AE17">
+        <v>1.7419785591721627E-2</v>
+      </c>
+      <c r="AF17">
+        <v>6.1071884705477149E-2</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0.99533112112227995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>51.5</v>
+      </c>
+      <c r="C18">
+        <v>1.19</v>
+      </c>
+      <c r="D18">
+        <v>19.2</v>
+      </c>
+      <c r="E18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F18">
+        <v>0.19</v>
+      </c>
+      <c r="G18">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0.42</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18">
+        <v>6.2</v>
+      </c>
+      <c r="O18">
+        <v>50.3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5.83</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>22.7</v>
+      </c>
+      <c r="V18">
+        <v>0.24</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y18">
+        <v>1.6209717079519859</v>
+      </c>
+      <c r="Z18">
+        <v>1292.3435086666891</v>
+      </c>
+      <c r="AA18">
+        <v>1.1076740067058228</v>
+      </c>
+      <c r="AB18">
+        <v>0.85009283245930523</v>
+      </c>
+      <c r="AC18">
+        <v>0.10664943059265029</v>
+      </c>
+      <c r="AD18">
+        <v>1.2705136182045849E-2</v>
+      </c>
+      <c r="AE18">
+        <v>2.2984185373579807E-2</v>
+      </c>
+      <c r="AF18">
+        <v>7.1016607680193994E-2</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1.0641293028646934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>51.5</v>
+      </c>
+      <c r="C19">
+        <v>1.19</v>
+      </c>
+      <c r="D19">
+        <v>19.2</v>
+      </c>
+      <c r="E19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F19">
+        <v>0.19</v>
+      </c>
+      <c r="G19">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>3.72</v>
+      </c>
+      <c r="J19">
+        <v>0.42</v>
+      </c>
+      <c r="K19">
+        <v>0.3</v>
+      </c>
+      <c r="L19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M19">
+        <v>6.2</v>
+      </c>
+      <c r="O19">
+        <v>49</v>
+      </c>
+      <c r="P19">
+        <v>0.73</v>
+      </c>
+      <c r="Q19">
+        <v>4.12</v>
+      </c>
+      <c r="R19">
+        <v>5.83</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>0.24</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>8.1701532334176132</v>
+      </c>
+      <c r="Z19">
+        <v>1381.4302210358153</v>
+      </c>
+      <c r="AA19">
+        <v>0.44468985955358936</v>
+      </c>
+      <c r="AB19">
+        <v>0.37861233707287301</v>
+      </c>
+      <c r="AC19">
+        <v>0.73915274199725201</v>
+      </c>
+      <c r="AD19">
+        <v>8.894588014868357E-2</v>
+      </c>
+      <c r="AE19">
+        <v>1.7397439212128468E-2</v>
+      </c>
+      <c r="AF19">
+        <v>2.2921029375436754E-2</v>
+      </c>
+      <c r="AG19">
+        <v>8.0525138893461967E-2</v>
+      </c>
+      <c r="AH19">
+        <v>1.3271182086432101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>1.19</v>
+      </c>
+      <c r="D20">
+        <v>19.2</v>
+      </c>
+      <c r="E20">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F20">
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>0.42</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M20">
+        <v>6.2</v>
+      </c>
+      <c r="O20">
+        <v>50.3</v>
+      </c>
+      <c r="P20">
+        <v>0.73</v>
+      </c>
+      <c r="Q20">
+        <v>4.12</v>
+      </c>
+      <c r="R20">
+        <v>5.83</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>22.7</v>
+      </c>
+      <c r="V20">
+        <v>6.5</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>1400</v>
+      </c>
+      <c r="AA20">
+        <v>0.76042715033821651</v>
+      </c>
+      <c r="AB20">
+        <v>0.75548482988763754</v>
+      </c>
+      <c r="AC20">
+        <v>7.7249968366672167E-2</v>
+      </c>
+      <c r="AD20">
+        <v>1.3908078085523225E-2</v>
+      </c>
+      <c r="AE20">
+        <v>3.0671098569858942E-2</v>
+      </c>
+      <c r="AF20">
+        <v>8.4160505492455392E-2</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>51.5</v>
+      </c>
+      <c r="C21">
+        <v>1.19</v>
+      </c>
+      <c r="D21">
+        <v>19.2</v>
+      </c>
+      <c r="E21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F21">
+        <v>0.19</v>
+      </c>
+      <c r="G21">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>3.72</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M21">
+        <v>6.2</v>
+      </c>
+      <c r="O21">
+        <v>50.3</v>
+      </c>
+      <c r="P21">
+        <v>0.73</v>
+      </c>
+      <c r="Q21">
+        <v>4.12</v>
+      </c>
+      <c r="R21">
+        <v>5.83</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>15</v>
+      </c>
+      <c r="U21">
+        <v>22.7</v>
+      </c>
+      <c r="V21">
+        <v>0.24</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y21">
+        <v>1.6404455531088109</v>
+      </c>
+      <c r="Z21">
+        <v>1289.7900396803018</v>
+      </c>
+      <c r="AA21">
+        <v>1.1480133146018787</v>
+      </c>
+      <c r="AB21">
+        <v>0.81093428559475234</v>
+      </c>
+      <c r="AC21">
+        <v>9.4090226978268104E-2</v>
+      </c>
+      <c r="AD21">
+        <v>1.1158402244148064E-2</v>
+      </c>
+      <c r="AE21">
+        <v>1.7402234008871954E-2</v>
+      </c>
+      <c r="AF21">
+        <v>6.1293743961836601E-2</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0.99560413495509659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>51.5</v>
+      </c>
+      <c r="C22">
+        <v>1.19</v>
+      </c>
+      <c r="D22">
+        <v>19.2</v>
+      </c>
+      <c r="E22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F22">
+        <v>0.19</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.42</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>6.2</v>
+      </c>
+      <c r="O22">
+        <v>50.3</v>
+      </c>
+      <c r="P22">
+        <v>0.73</v>
+      </c>
+      <c r="Q22">
+        <v>4.12</v>
+      </c>
+      <c r="R22">
+        <v>5.83</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>22.7</v>
+      </c>
+      <c r="V22">
+        <v>0.12</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y22">
+        <v>2.7221395513239273</v>
+      </c>
+      <c r="Z22">
+        <v>1285.5775195885856</v>
+      </c>
+      <c r="AA22">
+        <v>1.2090157334696083</v>
+      </c>
+      <c r="AB22">
+        <v>0.72619020694995284</v>
+      </c>
+      <c r="AC22">
+        <v>0.11349635033458251</v>
+      </c>
+      <c r="AD22">
+        <v>1.3851106031008349E-2</v>
+      </c>
+      <c r="AE22">
+        <v>4.8892561521341835E-3</v>
+      </c>
+      <c r="AF22">
+        <v>3.6819330729797962E-2</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0.89553395340426145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>1.19</v>
+      </c>
+      <c r="D23">
+        <v>19.2</v>
+      </c>
+      <c r="E23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>0.19</v>
+      </c>
+      <c r="G23">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>3.72</v>
+      </c>
+      <c r="J23">
+        <v>0.42</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M23">
+        <v>6.2</v>
+      </c>
+      <c r="O23">
+        <v>50.3</v>
+      </c>
+      <c r="P23">
+        <v>0.73</v>
+      </c>
+      <c r="Q23">
+        <v>4.12</v>
+      </c>
+      <c r="R23">
+        <v>5.83</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>15</v>
+      </c>
+      <c r="U23">
+        <v>22.7</v>
+      </c>
+      <c r="V23">
+        <v>0.24</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y23">
+        <v>-1.6401195338433268</v>
+      </c>
+      <c r="Z23">
+        <v>1253.9680080463893</v>
+      </c>
+      <c r="AA23">
+        <v>1.2961589883949016</v>
+      </c>
+      <c r="AB23">
+        <v>0.8483575207980234</v>
+      </c>
+      <c r="AC23">
+        <v>0.14252425523322898</v>
+      </c>
+      <c r="AD23">
+        <v>7.595307200828543E-3</v>
+      </c>
+      <c r="AE23">
+        <v>1.3950273381210016E-2</v>
+      </c>
+      <c r="AF23">
+        <v>3.0682155560145835E-2</v>
+      </c>
+      <c r="AG23">
+        <v>5.9634461326590416E-3</v>
+      </c>
+      <c r="AH23">
+        <v>1.0493242833442253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>51.5</v>
+      </c>
+      <c r="C24">
+        <v>1.19</v>
+      </c>
+      <c r="D24">
+        <v>19.2</v>
+      </c>
+      <c r="E24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F24">
+        <v>0.19</v>
+      </c>
+      <c r="G24">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>3.72</v>
+      </c>
+      <c r="J24">
+        <v>0.42</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M24">
+        <v>6.2</v>
+      </c>
+      <c r="O24">
+        <v>50.3</v>
+      </c>
+      <c r="P24">
+        <v>0.73</v>
+      </c>
+      <c r="Q24">
+        <v>4.12</v>
+      </c>
+      <c r="R24">
+        <v>5.83</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+      <c r="U24">
+        <v>22.7</v>
+      </c>
+      <c r="V24">
+        <v>0.01</v>
+      </c>
+      <c r="W24">
+        <v>0.2</v>
+      </c>
+      <c r="X24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y24">
+        <v>-13.689099696080232</v>
+      </c>
+      <c r="Z24">
+        <v>1162.1505482125979</v>
+      </c>
+      <c r="AA24">
+        <v>2.0553217779687407</v>
+      </c>
+      <c r="AB24">
+        <v>1.580198836346032</v>
+      </c>
+      <c r="AC24">
+        <v>0.15585202776253568</v>
+      </c>
+      <c r="AD24">
+        <v>9.1580384072394855E-3</v>
+      </c>
+      <c r="AE24">
+        <v>1.7367705761454626E-2</v>
+      </c>
+      <c r="AF24">
+        <v>6.7218866482892242E-2</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1.8311436356304942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>51.5</v>
+      </c>
+      <c r="C25">
+        <v>1.19</v>
+      </c>
+      <c r="D25">
+        <v>19.2</v>
+      </c>
+      <c r="E25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25">
+        <v>3.1</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0.42</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M25">
+        <v>6.2</v>
+      </c>
+      <c r="O25">
+        <v>50.3</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>22.7</v>
+      </c>
+      <c r="V25">
+        <v>0.24</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y25">
+        <v>1.7394704675570687</v>
+      </c>
+      <c r="Z25">
+        <v>1254.6466487840867</v>
+      </c>
+      <c r="AA25">
+        <v>1.3361829442164235</v>
+      </c>
+      <c r="AB25">
+        <v>0.79527957193155308</v>
+      </c>
+      <c r="AC25">
+        <v>8.5847845629430486E-2</v>
+      </c>
+      <c r="AD25">
+        <v>1.0958152975580743E-2</v>
+      </c>
+      <c r="AE25">
+        <v>1.4583618937844484E-2</v>
+      </c>
+      <c r="AF25">
+        <v>6.8681890187686834E-2</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0.97660620705055801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>51.5</v>
+      </c>
+      <c r="C26">
+        <v>1.19</v>
+      </c>
+      <c r="D26">
+        <v>19.2</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>0.19</v>
+      </c>
+      <c r="G26">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>3.72</v>
+      </c>
+      <c r="J26">
+        <v>0.42</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M26">
+        <v>6.2</v>
+      </c>
+      <c r="O26">
+        <v>53</v>
+      </c>
+      <c r="P26">
+        <v>0.73</v>
+      </c>
+      <c r="Q26">
+        <v>4.12</v>
+      </c>
+      <c r="R26">
+        <v>5.83</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>15</v>
+      </c>
+      <c r="U26">
+        <v>22.7</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y26">
+        <v>9</v>
+      </c>
+      <c r="Z26">
+        <v>1400</v>
+      </c>
+      <c r="AA26">
+        <v>0.81061904020306297</v>
+      </c>
+      <c r="AB26">
+        <v>0.62307066097086339</v>
+      </c>
+      <c r="AC26">
+        <v>9.3414159753892723E-2</v>
+      </c>
+      <c r="AD26">
+        <v>1.5314568984269073E-2</v>
+      </c>
+      <c r="AE26">
+        <v>1.7253743811758988E-2</v>
+      </c>
+      <c r="AF26">
+        <v>4.8417312988443845E-2</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>51.5</v>
+      </c>
+      <c r="C27">
+        <v>1.19</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F27">
+        <v>0.19</v>
+      </c>
+      <c r="G27">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>3.72</v>
+      </c>
+      <c r="J27">
+        <v>0.42</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M27">
+        <v>6.2</v>
+      </c>
+      <c r="O27">
+        <v>50.3</v>
+      </c>
+      <c r="P27">
+        <v>0.73</v>
+      </c>
+      <c r="Q27">
+        <v>4.12</v>
+      </c>
+      <c r="R27">
+        <v>5.83</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>15</v>
+      </c>
+      <c r="U27">
+        <v>22.7</v>
+      </c>
+      <c r="V27">
+        <v>0.24</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y27">
+        <v>2.0437418073793725</v>
+      </c>
+      <c r="Z27">
+        <v>1287.8778791909431</v>
+      </c>
+      <c r="AA27">
+        <v>1.1478388117167604</v>
+      </c>
+      <c r="AB27">
+        <v>0.79866224653639539</v>
+      </c>
+      <c r="AC27">
+        <v>9.1407983606368051E-2</v>
+      </c>
+      <c r="AD27">
+        <v>1.1571155240268607E-2</v>
+      </c>
+      <c r="AE27">
+        <v>1.7414794008578732E-2</v>
+      </c>
+      <c r="AF27">
+        <v>6.3349619942575278E-2</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0.98322205187034739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28">
+        <v>51.5</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>19.2</v>
+      </c>
+      <c r="E28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F28">
+        <v>0.19</v>
+      </c>
+      <c r="G28">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>3.72</v>
+      </c>
+      <c r="J28">
+        <v>0.42</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M28">
+        <v>6.2</v>
+      </c>
+      <c r="O28">
+        <v>50.3</v>
+      </c>
+      <c r="P28">
+        <v>0.73</v>
+      </c>
+      <c r="Q28">
+        <v>4.12</v>
+      </c>
+      <c r="R28">
+        <v>5.83</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <v>22.7</v>
+      </c>
+      <c r="V28">
+        <v>0.24</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>1.6203061756584598</v>
+      </c>
+      <c r="Z28">
+        <v>1294.7233724924386</v>
+      </c>
+      <c r="AA28">
+        <v>1.1219069918070592</v>
+      </c>
+      <c r="AB28">
+        <v>0.81192814254329415</v>
+      </c>
+      <c r="AC28">
+        <v>9.0895700893982481E-2</v>
+      </c>
+      <c r="AD28">
+        <v>1.1091602524528827E-2</v>
+      </c>
+      <c r="AE28">
+        <v>1.731477173184303E-2</v>
+      </c>
+      <c r="AF28">
+        <v>8.0796792978369905E-2</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>1.0130618449142137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>51.5</v>
+      </c>
+      <c r="C29">
+        <v>1.19</v>
+      </c>
+      <c r="D29">
+        <v>19.2</v>
+      </c>
+      <c r="E29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F29">
+        <v>0.19</v>
+      </c>
+      <c r="G29">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>3.72</v>
+      </c>
+      <c r="J29">
+        <v>0.42</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M29">
+        <v>6.2</v>
+      </c>
+      <c r="O29">
+        <v>50.3</v>
+      </c>
+      <c r="P29">
+        <v>0.73</v>
+      </c>
+      <c r="Q29">
+        <v>4.12</v>
+      </c>
+      <c r="R29">
+        <v>5.83</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>15</v>
+      </c>
+      <c r="U29">
+        <v>22.7</v>
+      </c>
+      <c r="V29">
+        <v>0.24</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>1.5837308153621108</v>
+      </c>
+      <c r="Z29">
+        <v>1289.2408589429026</v>
+      </c>
+      <c r="AA29">
+        <v>1.1514419075560551</v>
+      </c>
+      <c r="AB29">
+        <v>0.81130306805535424</v>
+      </c>
+      <c r="AC29">
+        <v>9.4631397596101688E-2</v>
+      </c>
+      <c r="AD29">
+        <v>1.1180454468523057E-2</v>
+      </c>
+      <c r="AE29">
+        <v>1.7419744754583053E-2</v>
+      </c>
+      <c r="AF29">
+        <v>6.1192912941690818E-2</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0.99644506129278976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FDD376-FA4A-41DB-832F-AA3C81DFA235}">
   <dimension ref="A1:BL6"/>
   <sheetViews>
@@ -3888,7 +6882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EA0FE1-5D36-4FA2-8EFD-FD04CCF34F3F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
